--- a/数据库字典_v1.0.xlsx
+++ b/数据库字典_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="570" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="570" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="137">
   <si>
     <t>序号</t>
   </si>
@@ -224,91 +224,94 @@
     <t>一级分类ID </t>
   </si>
   <si>
+    <t>third_id</t>
+  </si>
+  <si>
+    <t>三级分类ID </t>
+  </si>
+  <si>
+    <t>third_name</t>
+  </si>
+  <si>
+    <t>三级分类名字 </t>
+  </si>
+  <si>
+    <t>flash_id</t>
+  </si>
+  <si>
+    <t>秒杀活动ID </t>
+  </si>
+  <si>
+    <t>goods_id</t>
+  </si>
+  <si>
+    <t>商品ID </t>
+  </si>
+  <si>
+    <t>begin_time</t>
+  </si>
+  <si>
+    <t>秒杀活动开始时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>秒杀活动结束时间</t>
+  </si>
+  <si>
+    <t>eval_id</t>
+  </si>
+  <si>
+    <t>评论ID </t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>评价人id </t>
+  </si>
+  <si>
+    <t>style_name_id</t>
+  </si>
+  <si>
+    <t>样式名ID </t>
+  </si>
+  <si>
+    <t>style_value_id</t>
+  </si>
+  <si>
+    <t>样式值ID </t>
+  </si>
+  <si>
+    <t>eval_text</t>
+  </si>
+  <si>
+    <t>评论内容 </t>
+  </si>
+  <si>
+    <t>eval_star</t>
+  </si>
+  <si>
+    <t>评价星级(1-5) </t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间 </t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>商品更多预览图 </t>
+  </si>
+  <si>
+    <t>二级分类id </t>
+  </si>
+  <si>
     <t>thired_id</t>
-  </si>
-  <si>
-    <t>三级分类ID </t>
-  </si>
-  <si>
-    <t>thired_name</t>
-  </si>
-  <si>
-    <t>三级分类名字 </t>
-  </si>
-  <si>
-    <t>flash_id</t>
-  </si>
-  <si>
-    <t>秒杀活动ID </t>
-  </si>
-  <si>
-    <t>goods_id</t>
-  </si>
-  <si>
-    <t>商品ID </t>
-  </si>
-  <si>
-    <t>begin_time</t>
-  </si>
-  <si>
-    <t>秒杀活动开始时间</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>秒杀活动结束时间</t>
-  </si>
-  <si>
-    <t>eval_id</t>
-  </si>
-  <si>
-    <t>评论ID </t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>评价人id </t>
-  </si>
-  <si>
-    <t>style_name_id</t>
-  </si>
-  <si>
-    <t>样式名ID </t>
-  </si>
-  <si>
-    <t>style_value_id</t>
-  </si>
-  <si>
-    <t>样式值ID </t>
-  </si>
-  <si>
-    <t>eval_text</t>
-  </si>
-  <si>
-    <t>评论内容 </t>
-  </si>
-  <si>
-    <t>eval_star</t>
-  </si>
-  <si>
-    <t>评价星级(1-5) </t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>创建时间 </t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>图片ID </t>
-  </si>
-  <si>
-    <t>二级分类id </t>
   </si>
   <si>
     <t>三级分类id </t>
@@ -1718,8 +1721,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="6" ht="19.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -1818,12 +1821,12 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="19.5" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -1833,12 +1836,12 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
@@ -1848,12 +1851,12 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="19.5" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
@@ -1863,12 +1866,12 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
@@ -1878,47 +1881,47 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="19.5" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="19.5" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="38.25" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
@@ -1927,24 +1930,24 @@
         <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="19.5" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1963,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -2029,12 +2032,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="19.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -2044,7 +2047,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="19.5" spans="1:5">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="7" ht="19.5" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -2074,7 +2077,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2093,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -2144,12 +2147,12 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="19.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
@@ -2159,12 +2162,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="19.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -2174,12 +2177,12 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="19.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2260,12 +2263,12 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="19.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
@@ -2275,12 +2278,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="19.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -2290,12 +2293,12 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -2304,15 +2307,15 @@
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="19.5" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2383,7 @@
     </row>
     <row r="3" ht="19.5" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
@@ -2390,12 +2393,12 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="19.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
@@ -2404,10 +2407,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2784,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3061,7 +3064,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3236,8 +3239,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3291,7 +3294,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="19.5" spans="1:5">
@@ -3306,7 +3309,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
